--- a/explication test/testing détail.xlsx
+++ b/explication test/testing détail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nolf Simon\Desktop\EPHEC\2022-2023\Q1\Python\projet\projet\python\explication test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AB6031-3A56-4FE1-8554-5936BA335126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C2DB3B-4107-488A-982B-020B80FB9269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>nom du fichier</t>
   </si>
@@ -39,33 +39,9 @@
     <t>Checkboard</t>
   </si>
   <si>
-    <t>test_square</t>
-  </si>
-  <si>
-    <t>test_turn</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>test_board</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>on vérifie que le taleau est bien sous forme de liste</t>
-  </si>
-  <si>
-    <t>test_score</t>
-  </si>
-  <si>
     <t>Dict</t>
   </si>
   <si>
-    <t>test_changeturn</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
@@ -105,42 +81,12 @@
     <t>test_diagonale</t>
   </si>
   <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>test_game</t>
-  </si>
-  <si>
-    <t>test_finished</t>
-  </si>
-  <si>
-    <t>on vérifie que la fonction finished change l'état de la variable game</t>
-  </si>
-  <si>
     <t>Window</t>
   </si>
   <si>
-    <t>test_width</t>
-  </si>
-  <si>
-    <t>test_height</t>
-  </si>
-  <si>
     <t>sortie attendue</t>
   </si>
   <si>
-    <t>on regarde si le getter est bien configuré</t>
-  </si>
-  <si>
-    <t>il s'agit d'un booléen et on vérifie qu'on sait le récupérer</t>
-  </si>
-  <si>
-    <t>on vérifie que le score est bien un dictionnaire</t>
-  </si>
-  <si>
-    <t>on vérifie que le tour est bien changé à chaque appel de la fonction</t>
-  </si>
-  <si>
     <t>on vérifie que la fonction exécute le code comme on le demande</t>
   </si>
   <si>
@@ -150,13 +96,58 @@
     <t>on vérifie que le board n'est pas modifié et que la fonction renvoie False lorsqu'on veux déplacer le pion en diagonale</t>
   </si>
   <si>
-    <t>on vérifi l'accès à la variable game</t>
-  </si>
-  <si>
-    <t>on vérifie l'accès à la variable  width</t>
-  </si>
-  <si>
-    <t>on vérifie l'accès à la variable height</t>
+    <t>fonction testée</t>
+  </si>
+  <si>
+    <t>modify_board</t>
+  </si>
+  <si>
+    <t>test_raise</t>
+  </si>
+  <si>
+    <t>index out of range</t>
+  </si>
+  <si>
+    <t>on vérifie que le raise est bien atteint si les coordonnées sont supérieurs a 10 dans le tuple.</t>
+  </si>
+  <si>
+    <t>update_score</t>
+  </si>
+  <si>
+    <t>load_pawn</t>
+  </si>
+  <si>
+    <t>test_score_negatif</t>
+  </si>
+  <si>
+    <t>{'blancs': -2, 'noirs': 0}</t>
+  </si>
+  <si>
+    <t>on vérifie que la fonction exécute le code comme on le demande même en négatif</t>
+  </si>
+  <si>
+    <t>count_pawn</t>
+  </si>
+  <si>
+    <t>set_name</t>
+  </si>
+  <si>
+    <t>test_set_name</t>
+  </si>
+  <si>
+    <t>test_name</t>
+  </si>
+  <si>
+    <t>TypeError</t>
+  </si>
+  <si>
+    <t>on vérifie que le paramère est bien un string</t>
+  </si>
+  <si>
+    <t>('test', 'test')</t>
+  </si>
+  <si>
+    <t>on verifie que le nom donée correspond au nom récupéré</t>
   </si>
 </sst>
 </file>
@@ -184,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -260,11 +251,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -272,9 +353,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,219 +652,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="104.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="104.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E8" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C10" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="4">
-        <v>800</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="6">
-        <v>950</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/explication test/testing détail.xlsx
+++ b/explication test/testing détail.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nolf Simon\Desktop\EPHEC\2022-2023\Q1\Python\projet\projet\python\explication test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C2DB3B-4107-488A-982B-020B80FB9269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F77EE8-0484-41B5-A0B5-D72D86E0D641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>nom du fichier</t>
   </si>
@@ -54,9 +54,6 @@
     <t>test_load_pawns</t>
   </si>
   <si>
-    <t>on vérifie que la fonction charge bien les images des pions</t>
-  </si>
-  <si>
     <t>test_modify_board</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>index out of range</t>
   </si>
   <si>
-    <t>on vérifie que le raise est bien atteint si les coordonnées sont supérieurs a 10 dans le tuple.</t>
-  </si>
-  <si>
     <t>update_score</t>
   </si>
   <si>
@@ -148,6 +142,63 @@
   </si>
   <si>
     <t>on verifie que le nom donée correspond au nom récupéré</t>
+  </si>
+  <si>
+    <t>on vérifie que le raise est bien atteint si les coordonnées sont supérieurs à 10 dans le tuple.</t>
+  </si>
+  <si>
+    <t>on vérifie que la fonction charge bien les images des pions, on ne sais pas vérifié la valeur exacte car il s'agit d'objet pygame. Donc, c'est pas possible de tester autrement</t>
+  </si>
+  <si>
+    <t>test_modifyboard_more_than_on_case</t>
+  </si>
+  <si>
+    <t>le tableau initial</t>
+  </si>
+  <si>
+    <t>on vérifie qu'il n'est pas possible d'avancé de plus de une case à la fois</t>
+  </si>
+  <si>
+    <t>test_eat_pawn</t>
+  </si>
+  <si>
+    <t>on vérifie que le pion est bien "manger" et est supprimer du tableau en plus du dplacement en diagonal du "mangeur"</t>
+  </si>
+  <si>
+    <t>test_travere_board</t>
+  </si>
+  <si>
+    <t>on verifie que le pion ne sais pas aller d'un coté à l'autre du plateau</t>
+  </si>
+  <si>
+    <t>test_déplacement_droite</t>
+  </si>
+  <si>
+    <t>on vérifie que le pion ne sais pas se déplacé à droite</t>
+  </si>
+  <si>
+    <t>on vérifie que le pion de sais pas se déplacer à gauche</t>
+  </si>
+  <si>
+    <t>test_déplacement_gauche</t>
+  </si>
+  <si>
+    <t>test_diagonale_out_droite</t>
+  </si>
+  <si>
+    <t>on vérifie que le pion dne sorte pas du plateau quand on "mange" un pion adverse</t>
+  </si>
+  <si>
+    <t>test_multiple_moves</t>
+  </si>
+  <si>
+    <t>on vérifie que plusieurs mouvement sont possible et que le pion est toujours considéré comme tel a son arrivée a la fin du plateau</t>
+  </si>
+  <si>
+    <t>test_convert_pawn_to_cheek</t>
+  </si>
+  <si>
+    <t>on vérifie que plusieurs mouvement sont possible et que le pion est toujours considéré comme tel a son arrivée a la fin du plateau avec l'appel a une fonction pour convertir le pion en dame</t>
   </si>
 </sst>
 </file>
@@ -345,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -353,25 +404,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,208 +731,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="104.5703125" customWidth="1"/>
+    <col min="5" max="5" width="168.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>23</v>
+      <c r="B1" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="19"/>
+      <c r="C6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="19"/>
+      <c r="C7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E7" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="19"/>
+      <c r="C8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="19"/>
+      <c r="C9" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="19"/>
+      <c r="C10" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="19"/>
+      <c r="C11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="19"/>
+      <c r="C12" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
+      <c r="B13" s="22"/>
+      <c r="C13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
+      <c r="D17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="10" t="s">
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="17" t="s">
+      <c r="E19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
